--- a/src/test/resources/TestData/Drybar/DrybarTestData.xlsx
+++ b/src/test/resources/TestData/Drybar/DrybarTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varap\playwright-java-framework\src\test\resources\TestData\Drybar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B08782-A415-495E-8A9D-121E188D6788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6C8BE0-AB93-49A9-A088-F989B4B25F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/TestData/Drybar/DrybarTestData.xlsx
+++ b/src/test/resources/TestData/Drybar/DrybarTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varap\playwright-java-framework\src\test\resources\TestData\Drybar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9DDFBF-A091-43F9-9B1D-9669F281ABCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3687E4-84BD-46FA-A7F4-743FEC1591D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>FirstName</t>
   </si>
@@ -96,9 +96,6 @@
     <t>CVV</t>
   </si>
   <si>
-    <t>4242424242424240</t>
-  </si>
-  <si>
     <t>O6/28</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>ExpDate</t>
   </si>
   <si>
-    <t>email@gmail.com</t>
-  </si>
-  <si>
     <t>ShippingEmail</t>
   </si>
   <si>
@@ -127,6 +121,27 @@
   </si>
   <si>
     <t>varaprasad.raikanti+</t>
+  </si>
+  <si>
+    <t>varaprasad.raikanti+200@gmail.com</t>
+  </si>
+  <si>
+    <t>4242424242424242</t>
+  </si>
+  <si>
+    <t>#PayPalPaymentDetails</t>
+  </si>
+  <si>
+    <t>PayPalEmailAddress</t>
+  </si>
+  <si>
+    <t>oxobuyer@oxo.com</t>
+  </si>
+  <si>
+    <t>PayPalPassword</t>
+  </si>
+  <si>
+    <t>oxobuyer123</t>
   </si>
 </sst>
 </file>
@@ -179,7 +194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -203,6 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -484,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +514,7 @@
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -555,7 +571,7 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -581,7 +597,7 @@
         <v>1232345678</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -606,10 +622,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
         <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -617,10 +633,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="C12">
         <v>111</v>
@@ -628,7 +644,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="5"/>
     </row>
@@ -640,13 +656,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
         <v>30</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -657,19 +673,41 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{185A0804-8820-4C0E-A306-F51B3DBD000D}"/>
     <hyperlink ref="H6" r:id="rId2" xr:uid="{768778B5-24CF-4AC1-9639-1DAD9CB55DAE}"/>
+    <hyperlink ref="A18" r:id="rId3" xr:uid="{59449602-DFA2-4406-BAAA-4EAF94FB445F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
